--- a/PCB_design_3_first_attempt/mounting_PCB_design_3_bom.xlsx
+++ b/PCB_design_3_first_attempt/mounting_PCB_design_3_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7117bc3377af39d/Desktop/uni year 3/design 3/Design-3-Team-2/PCB_design_3_first_attempt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{9214E0AE-AB43-43AF-B645-1AC9CED1C5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84639D65-7686-41E3-B3C6-9D9A1E030E7B}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{9214E0AE-AB43-43AF-B645-1AC9CED1C5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{449411B1-12DB-4DA3-BAE6-97EC675A5FB5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9960" xr2:uid="{455D5C8B-2CCA-44D2-B12D-2F57D55D50CE}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9960" xr2:uid="{455D5C8B-2CCA-44D2-B12D-2F57D55D50CE}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB_design_3_bom" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Line #</t>
   </si>
@@ -162,6 +162,21 @@
   </si>
   <si>
     <t>94W9058</t>
+  </si>
+  <si>
+    <t>MCA12060D8000BP500</t>
+  </si>
+  <si>
+    <t>Res MC Precision Thin Film 1206 800Ω 0.1% 0.25W ±25ppm/°C Molded Paper T/R</t>
+  </si>
+  <si>
+    <t>800, res800G, Res800</t>
+  </si>
+  <si>
+    <t>CMP-02407-008722-1</t>
+  </si>
+  <si>
+    <t>Vishay BCcomponents</t>
   </si>
 </sst>
 </file>
@@ -239,6 +254,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDAA15-BD2C-4B95-8A9D-6D488F8D3E44}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,6 +769,45 @@
         <v>3.9510000000000003E-2</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PCB_design_3_first_attempt/mounting_PCB_design_3_bom.xlsx
+++ b/PCB_design_3_first_attempt/mounting_PCB_design_3_bom.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="8_{9214E0AE-AB43-43AF-B645-1AC9CED1C5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{449411B1-12DB-4DA3-BAE6-97EC675A5FB5}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9960" xr2:uid="{455D5C8B-2CCA-44D2-B12D-2F57D55D50CE}"/>
+    <workbookView xWindow="4155" yWindow="4080" windowWidth="21600" windowHeight="11295" xr2:uid="{455D5C8B-2CCA-44D2-B12D-2F57D55D50CE}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB_design_3_bom" sheetId="1" r:id="rId1"/>
@@ -560,28 +560,28 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="59.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -675,7 +675,7 @@
         <v>26.14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -722,7 +722,7 @@
         <v>14.81</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -769,7 +769,7 @@
         <v>3.9510000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
